--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldGenerateWorkbook.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldGenerateWorkbook.xlsx
@@ -28,10 +28,18 @@
   </x:fills>
   <x:borders count="1">
     <x:border>
-      <x:left style="none"/>
-      <x:right style="none"/>
-      <x:top style="none"/>
-      <x:bottom style="none"/>
+      <x:left style="none">
+        <x:color indexed="0"/>
+      </x:left>
+      <x:right style="none">
+        <x:color indexed="0"/>
+      </x:right>
+      <x:top style="none">
+        <x:color indexed="0"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color indexed="0"/>
+      </x:bottom>
     </x:border>
   </x:borders>
   <x:cellXfs count="1">

--- a/EZSpreadsheet.Tests/ExpectedFiles/ShouldGenerateWorkbook.xlsx
+++ b/EZSpreadsheet.Tests/ExpectedFiles/ShouldGenerateWorkbook.xlsx
@@ -14,7 +14,7 @@
   <x:fonts count="1">
     <x:font>
       <x:sz val="11"/>
-      <x:color indexed="0"/>
+      <x:color rgb="000000"/>
       <x:name val="Calibri"/>
     </x:font>
   </x:fonts>
@@ -29,16 +29,16 @@
   <x:borders count="1">
     <x:border>
       <x:left style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:left>
       <x:right style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:right>
       <x:top style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:top>
       <x:bottom style="none">
-        <x:color indexed="0"/>
+        <x:color rgb="000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
